--- a/human_dpcr_primers.xlsx
+++ b/human_dpcr_primers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D196DADD-26FE-401A-84C0-78757D23AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA2C0F-CA61-435E-A022-6A7AAF4DF83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39420" yWindow="0" windowWidth="18180" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36015" yWindow="1005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer-Probe Interactions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Assay ID</t>
   </si>
@@ -116,18 +116,6 @@
     <t>AGGGATGGACAAAGGAACAGAA</t>
   </si>
   <si>
-    <t>GGTGAGGCGGTAAGGAGACTT</t>
-  </si>
-  <si>
-    <t>ACACTCAAGAATAACTTC</t>
-  </si>
-  <si>
-    <t>A30064</t>
-  </si>
-  <si>
-    <t>TaqMan™ RNase P Assay, VIC™ dye/QSY™ probe</t>
-  </si>
-  <si>
     <t>GCGTTGATGGGCGGTAAGT</t>
   </si>
   <si>
@@ -144,13 +132,28 @@
   </si>
   <si>
     <t>CNV target - chrY</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AGGTGAGGCGGTAAGGAGACTT</t>
+  </si>
+  <si>
+    <t>ACACTCAAGAATAACTTCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +218,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -271,7 +266,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -285,16 +280,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -819,7 +813,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,13 +828,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -871,37 +865,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="str">
-        <f>IF(B5="","",(IF(B5="Primer/Probe pair","Enter Probe Sequence","")))</f>
+      <c r="C5" s="6" t="str">
+        <f>IF(B5="","",(IF(B5="Assay ID","Enter Assay ID","")))</f>
         <v/>
       </c>
-      <c r="E5" s="6" t="str">
-        <f>IF(B5="","",(IF(B5="Primer/Probe pair","Enter Forward Primer Sequence","")))</f>
-        <v/>
-      </c>
-      <c r="F5" s="6" t="str">
-        <f>IF(B5="","",(IF(B5="Primer/Probe pair","Enter Reverse Primer Sequence","")))</f>
-        <v/>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>2</v>
+      <c r="A6" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -910,17 +906,17 @@
         <f>IF(B6="","",(IF(B6="Assay ID","Enter Assay ID","")))</f>
         <v/>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>16</v>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>13</v>
@@ -930,8 +926,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>3</v>
+      <c r="A7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -940,17 +936,17 @@
         <f>IF(B7="","",(IF(B7="Assay ID","Enter Assay ID","")))</f>
         <v/>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>13</v>
@@ -960,51 +956,48 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f>IF(B8="","",(IF(B8="Assay ID","Enter Assay ID","")))</f>
+      <c r="C9" s="6" t="str">
+        <f>IF(B9="","",(IF(B9="Assay ID","Enter Assay ID","")))</f>
         <v/>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="D9" s="6" t="str">
+        <f t="shared" ref="D9:D10" si="0">IF(B9="","",(IF(B9="Primer/Probe pair","Enter Probe Sequence","")))</f>
+        <v>Enter Probe Sequence</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f>IF(B9="","",(IF(B9="Primer/Probe pair","Enter Forward Primer Sequence","")))</f>
+        <v>Enter Forward Primer Sequence</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f>IF(B9="","",(IF(B9="Primer/Probe pair","Enter Reverse Primer Sequence","")))</f>
+        <v>Enter Reverse Primer Sequence</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>1</v>
@@ -1014,7 +1007,7 @@
         <v/>
       </c>
       <c r="D10" s="6" t="str">
-        <f t="shared" ref="D10:D11" si="0">IF(B10="","",(IF(B10="Primer/Probe pair","Enter Probe Sequence","")))</f>
+        <f t="shared" si="0"/>
         <v>Enter Probe Sequence</v>
       </c>
       <c r="E10" s="6" t="str">
@@ -1029,33 +1022,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f>IF(B11="","",(IF(B11="Assay ID","Enter Assay ID","")))</f>
-        <v/>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Enter Probe Sequence</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f>IF(B11="","",(IF(B11="Primer/Probe pair","Enter Forward Primer Sequence","")))</f>
-        <v>Enter Forward Primer Sequence</v>
-      </c>
-      <c r="F11" s="6" t="str">
-        <f>IF(B11="","",(IF(B11="Primer/Probe pair","Enter Reverse Primer Sequence","")))</f>
-        <v>Enter Reverse Primer Sequence</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2"/>
@@ -1070,9 +1037,9 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A8:I8"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:F5 C6:C8 C10:F11">
+  <conditionalFormatting sqref="C5:C7 C9:F10">
     <cfRule type="expression" priority="1">
       <formula>OR(B5="Assay ID", B5="Primer/Probe pair")</formula>
     </cfRule>
@@ -1090,7 +1057,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B8 B10:B11</xm:sqref>
+          <xm:sqref>B9:B10 B5:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1115,13 +1082,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
